--- a/table.xlsx
+++ b/table.xlsx
@@ -133,19 +133,19 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,7 +444,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
